--- a/Second revision/GIA Models/RSL_data.xlsx
+++ b/Second revision/GIA Models/RSL_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arovere\Documents\Notebooks\GIA_SE_Asia_Jun_2019\GIA_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arovere\Documents\GitHub\SE-Asia-Sealevel\Second revision\GIA Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>SB_FMA18</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Kodingareng keke</t>
+  </si>
+  <si>
+    <t>SB_FMA21</t>
   </si>
 </sst>
 </file>
@@ -220,15 +223,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,18 +251,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -262,6 +286,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,582 +590,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>4869</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>75</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.20545944055944143</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.28648664267149371</v>
+      <c r="E2" s="1">
+        <v>0.22763636363636386</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>5196</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>118</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.15545944055944133</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.28648664267149371</v>
+      <c r="E3" s="1">
+        <v>0.17763636363636376</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>3692.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>107.5</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.13545944055944131</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.28648664267149371</v>
+      <c r="E4" s="1">
+        <v>0.15763636363636374</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>5342.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>87.5</v>
       </c>
-      <c r="E5" s="3">
-        <v>8.5638993804129093E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.21051852452980221</v>
+      <c r="E5" s="1">
+        <v>1.9506746626687166E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>5868.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>98.5</v>
       </c>
-      <c r="E6" s="3">
-        <v>-1.4361006195870996E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.21051852452980221</v>
+      <c r="E6" s="1">
+        <v>9.506746626687157E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <v>5519.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>65.5</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.11856389938041278</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.21051852452980221</v>
+      <c r="E7" s="1">
+        <v>0.12950674662668704</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>5519.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>65.5</v>
       </c>
-      <c r="E8" s="3">
-        <v>3.8563899380412936E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.21051852452980221</v>
+      <c r="E8" s="1">
+        <v>4.9506746626687193E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>4954.5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>109.5</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.13624999999999998</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.21116691500896054</v>
+      <c r="E9" s="1">
+        <v>0.13625000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.12355203020050551</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>5956.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>83.5</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.21625000000000005</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.21116691500896054</v>
+      <c r="E10" s="1">
+        <v>0.21625000000000011</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.12355203020050551</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>5509.5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>66.5</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.49625000000000002</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.28406243326846575</v>
+      <c r="E11" s="1">
+        <v>0.49625000000000008</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.22663870844731407</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5970</v>
+      </c>
+      <c r="D12" s="9">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.53625000000000012</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.22663870844731407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="10">
         <v>5550.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="10">
         <v>77.5</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.31624999999999992</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.21700568194036202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>0.3162500000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.12831642204591984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="9">
         <v>4740.5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="9">
         <v>94.5</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.31624999999999992</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.21700568194036202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E14" s="1">
+        <v>0.3162500000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.12831642204591984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="10">
         <v>4488.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="10">
         <v>91.5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.47625000000000017</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.28842930848719511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>0.47624999999999995</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.22927080966984573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="9">
         <v>4453.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="9">
         <v>92.5</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.45625000000000016</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.28842930848719511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>0.45624999999999993</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.22927080966984573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="10">
         <v>3614.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="10">
         <v>98.5</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.45625000000000016</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.28842930848719511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E17" s="1">
+        <v>0.45624999999999993</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.22927080966984573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10">
         <v>5746.5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="10">
         <v>109.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18">
         <v>0.386860010449321</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18">
         <v>0.12939999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9">
         <v>5537.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="9">
         <v>78.5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19">
         <v>0.39686001044932101</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19">
         <v>0.12939999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10">
         <v>5521</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="10">
         <v>72</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20">
         <v>0.41686001044932097</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20">
         <v>0.12939999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9">
         <v>5686</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="9">
         <v>101</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21">
         <v>0.42686001044932098</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21">
         <v>0.12939999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="10">
         <v>5193</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="10">
         <v>131</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22">
         <v>0.10686001044932091</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9">
         <v>5278</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="9">
         <v>150</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23">
         <v>0.19686001044932094</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10">
         <v>3905</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="10">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24">
         <v>-1.8139989550679091E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9">
         <v>4879</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="9">
         <v>75</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25">
         <v>4.6860010449320907E-2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="10">
         <v>4479</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="10">
         <v>88</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26">
         <v>1.6860010449320909E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9">
         <v>4466.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="9">
         <v>103.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27">
         <v>-8.1399895506790894E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="10">
         <v>5106.5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="10">
         <v>149.5</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28">
         <v>4.6860010449320907E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="9">
         <v>5279</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="9">
         <v>146</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29">
         <v>0.15686001044932091</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29">
         <v>0.1094</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="10">
         <v>5724</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="10">
         <v>118</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30">
         <v>0.34686001044932102</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30">
         <v>0.12939999999999999</v>
       </c>
     </row>
@@ -1153,77 +1209,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>119.05945587734608</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>-4.7444728474085434</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>119.13945587734608</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>-4.6444728474085437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>119.27945587734608</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>-5.1044728474085437</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>119.31945587734609</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>-5.0244728474085436</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>119.33945587734608</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>-5.3244728474085434</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6">
         <v>119.35945587734609</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>-4.9444728474085435</v>
       </c>
     </row>

--- a/Second revision/GIA Models/RSL_data.xlsx
+++ b/Second revision/GIA Models/RSL_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arovere\Documents\GitHub\SE-Asia-Sealevel\Second revision\GIA Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFBF0FA-168B-4BA7-8259-AE293F8F745D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSL" sheetId="8" r:id="rId1"/>
     <sheet name="COORD" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="44">
   <si>
     <t>SB_FMA18</t>
   </si>
@@ -185,7 +186,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,27 +227,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -251,53 +243,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,363 +559,365 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>4869</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>75</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.22763636363636386</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="9">
+        <v>0.19963636363636383</v>
+      </c>
+      <c r="F2" s="9">
         <v>0.22334166651119966</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>5196</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>118</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.17763636363636376</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="9">
+        <v>0.14963636363636373</v>
+      </c>
+      <c r="F3" s="9">
         <v>0.22334166651119966</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3692.5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>107.5</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.15763636363636374</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="9">
+        <v>0.12963636363636372</v>
+      </c>
+      <c r="F4" s="9">
         <v>0.22334166651119966</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>5342.5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>87.5</v>
       </c>
-      <c r="E5" s="1">
-        <v>1.9506746626687166E-2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="9">
+        <v>-8.493253373312859E-3</v>
+      </c>
+      <c r="F5" s="9">
         <v>0.1171535434420177</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>5868.5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>98.5</v>
       </c>
-      <c r="E6" s="1">
-        <v>9.506746626687157E-3</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="9">
+        <v>-1.8493253373312868E-2</v>
+      </c>
+      <c r="F6" s="9">
         <v>0.1171535434420177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>5519.5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>65.5</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.12950674662668704</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="9">
+        <v>0.10150674662668702</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.1171535434420177</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5519.5</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>65.5</v>
       </c>
-      <c r="E8" s="1">
-        <v>4.9506746626687193E-2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="9">
+        <v>2.1506746626687168E-2</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.1171535434420177</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>4954.5</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>109.5</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.13625000000000004</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.12355203020050551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
+        <v>0.13624999999999993</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.12355203020050591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>5956.5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>83.5</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.21625000000000011</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.12355203020050551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="E10" s="9">
+        <v>0.21625</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.12355203020050591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>5509.5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>66.5</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.49625000000000008</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.22663870844731407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="9">
+        <v>0.49624999999999997</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.22663870844731426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>5970</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>89</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.53625000000000012</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.22663870844731407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="9">
+        <v>0.53625</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.22663870844731426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>5550.5</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>77.5</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.3162500000000002</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.12831642204591984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="9">
+        <v>0.31625000000000009</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.12831642204592023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>4740.5</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>94.5</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.3162500000000002</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.12831642204591984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="9">
+        <v>0.31625000000000009</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.12831642204592023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>4488.5</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>91.5</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.47624999999999995</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.22927080966984573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="9">
+        <v>0.47624999999999984</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.22927080966984595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>4453.5</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>92.5</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.45624999999999993</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.22927080966984573</v>
+      <c r="E16" s="9">
+        <v>0.45624999999999982</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.22927080966984595</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>3614.5</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>98.5</v>
       </c>
-      <c r="E17" s="1">
-        <v>0.45624999999999993</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.22927080966984573</v>
+      <c r="E17" s="9">
+        <v>0.45624999999999982</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.22927080966984595</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8">
         <v>5746.5</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>109.5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>0.386860010449321</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>0.12939999999999999</v>
       </c>
     </row>
@@ -956,36 +928,36 @@
       <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>5537.5</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>78.5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>0.39686001044932101</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>0.12939999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8">
         <v>5521</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>72</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>0.41686001044932097</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <v>0.12939999999999999</v>
       </c>
     </row>
@@ -996,36 +968,36 @@
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>5686</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>101</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <v>0.42686001044932098</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <v>0.12939999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8">
         <v>5193</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>131</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <v>0.10686001044932091</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="9">
         <v>0.1094</v>
       </c>
     </row>
@@ -1036,36 +1008,36 @@
       <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>5278</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>150</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <v>0.19686001044932094</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <v>0.1094</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8">
         <v>3905</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>100</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <v>-1.8139989550679091E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="9">
         <v>0.1094</v>
       </c>
     </row>
@@ -1076,36 +1048,36 @@
       <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>4879</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>75</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <v>4.6860010449320907E-2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="9">
         <v>0.1094</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8">
         <v>4479</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>88</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <v>1.6860010449320909E-2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="9">
         <v>0.1094</v>
       </c>
     </row>
@@ -1116,36 +1088,36 @@
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>4466.5</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>103.5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <v>-8.1399895506790894E-3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="9">
         <v>0.1094</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8">
         <v>5106.5</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>149.5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>4.6860010449320907E-2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <v>0.1094</v>
       </c>
     </row>
@@ -1156,36 +1128,36 @@
       <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>5279</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>146</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <v>0.15686001044932091</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="9">
         <v>0.1094</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="8">
         <v>5724</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>118</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <v>0.34686001044932102</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="9">
         <v>0.12939999999999999</v>
       </c>
     </row>
@@ -1196,91 +1168,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6">
-        <v>119.05945587734608</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
+        <v>119.059455877346</v>
+      </c>
+      <c r="C2" s="4">
         <v>-4.7444728474085434</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>119.13945587734608</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>-4.6444728474085437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6">
-        <v>119.27945587734608</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-5.1044728474085437</v>
+      <c r="B4" s="4">
+        <v>119.28657</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-5.1055380000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6">
-        <v>119.31945587734609</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-5.0244728474085436</v>
+      <c r="B5" s="4">
+        <v>119.325282</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-5.0171109999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>119.33945587734608</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>-5.3244728474085434</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6">
-        <v>119.35945587734609</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-4.9444728474085435</v>
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4">
+        <v>119.36530399999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-4.9553900000000004</v>
       </c>
     </row>
   </sheetData>
